--- a/gender_means_data.xlsx
+++ b/gender_means_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,23 +397,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female/Other</t>
         </is>
       </c>
       <c r="B2">
-        <v>58.41885635670848</v>
+        <v>58.46168411738483</v>
       </c>
       <c r="C2">
-        <v>0.342762895595919</v>
+        <v>0.3414083824633194</v>
       </c>
       <c r="D2">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E2">
-        <v>57.74656559224548</v>
+        <v>57.79205036901923</v>
       </c>
       <c r="F2">
-        <v>59.09114712117148</v>
+        <v>59.13131786575043</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -428,19 +428,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>64.86904718536918</v>
+        <v>64.90194800623853</v>
       </c>
       <c r="C3">
-        <v>0.344416052069109</v>
+        <v>0.3436580861903839</v>
       </c>
       <c r="D3">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E3">
-        <v>64.19351394091953</v>
+        <v>64.2279017196435</v>
       </c>
       <c r="F3">
-        <v>65.54458042981884</v>
+        <v>65.57599429283356</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -451,50 +451,50 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female/Other</t>
         </is>
       </c>
       <c r="B4">
-        <v>63.50782841484345</v>
+        <v>108.5288738897135</v>
       </c>
       <c r="C4">
-        <v>3.71673015824926</v>
+        <v>0.6016357024765655</v>
       </c>
       <c r="D4">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E4">
-        <v>56.21788136544693</v>
+        <v>107.3488338224687</v>
       </c>
       <c r="F4">
-        <v>70.79777546423998</v>
+        <v>109.7089139569583</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AA_C</t>
+          <t>BiW_L</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B5">
-        <v>108.5654805066874</v>
+        <v>112.1495515030993</v>
       </c>
       <c r="C5">
-        <v>0.6042799982687059</v>
+        <v>0.6056001689387854</v>
       </c>
       <c r="D5">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E5">
-        <v>107.3802534380472</v>
+        <v>110.9617355853666</v>
       </c>
       <c r="F5">
-        <v>109.7507075753276</v>
+        <v>113.3373674208321</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -505,81 +505,81 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female/Other</t>
         </is>
       </c>
       <c r="B6">
-        <v>112.1776731636454</v>
+        <v>127.1678053282074</v>
       </c>
       <c r="C6">
-        <v>0.6071944601418919</v>
+        <v>0.7778707874772726</v>
       </c>
       <c r="D6">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E6">
-        <v>110.9867297067208</v>
+        <v>125.6421001671208</v>
       </c>
       <c r="F6">
-        <v>113.36861662057</v>
+        <v>128.693510489294</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>BiW_L</t>
+          <t>BiW_C</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B7">
-        <v>104.2157305318797</v>
+        <v>135.9331619477212</v>
       </c>
       <c r="C7">
-        <v>6.552476135689554</v>
+        <v>0.7829965515172058</v>
       </c>
       <c r="D7">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E7">
-        <v>91.36378755033391</v>
+        <v>134.3974031829049</v>
       </c>
       <c r="F7">
-        <v>117.0676735134255</v>
+        <v>137.4689207125375</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>BiW_L</t>
+          <t>BiW_C</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female/Other</t>
         </is>
       </c>
       <c r="B8">
-        <v>127.1783839313003</v>
+        <v>93.93357111473098</v>
       </c>
       <c r="C8">
-        <v>0.7813868882269572</v>
+        <v>0.834910118449337</v>
       </c>
       <c r="D8">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E8">
-        <v>125.6457816713207</v>
+        <v>92.29598978725534</v>
       </c>
       <c r="F8">
-        <v>128.71098619128</v>
+        <v>95.57115244220662</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>BiW_C</t>
+          <t>GoSub_C</t>
         </is>
       </c>
     </row>
@@ -590,158 +590,158 @@
         </is>
       </c>
       <c r="B9">
-        <v>135.9412885627931</v>
+        <v>105.27589529481</v>
       </c>
       <c r="C9">
-        <v>0.7851555423284825</v>
+        <v>0.8404117420230965</v>
       </c>
       <c r="D9">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E9">
-        <v>134.4012945128052</v>
+        <v>103.6275231578375</v>
       </c>
       <c r="F9">
-        <v>137.4812826127811</v>
+        <v>106.9242674317826</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BiW_C</t>
+          <t>GoSub_C</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female/Other</t>
         </is>
       </c>
       <c r="B10">
-        <v>125.9213904601501</v>
+        <v>18.20868192875474</v>
       </c>
       <c r="C10">
-        <v>8.472924724493586</v>
+        <v>0.2978164332685571</v>
       </c>
       <c r="D10">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E10">
-        <v>109.3027041511672</v>
+        <v>17.62454883543234</v>
       </c>
       <c r="F10">
-        <v>142.540076769133</v>
+        <v>18.79281502207714</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BiW_C</t>
+          <t>NRB_L</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B11">
-        <v>93.7394912026211</v>
+        <v>17.49267483379978</v>
       </c>
       <c r="C11">
-        <v>0.8370849511912032</v>
+        <v>0.2997788887158169</v>
       </c>
       <c r="D11">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E11">
-        <v>92.09764347351262</v>
+        <v>16.9046926071091</v>
       </c>
       <c r="F11">
-        <v>95.38133893172957</v>
+        <v>18.08065706049046</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>GoSub_C</t>
+          <t>NRB_L</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female/Other</t>
         </is>
       </c>
       <c r="B12">
-        <v>105.1268006813671</v>
+        <v>18.09662144576433</v>
       </c>
       <c r="C12">
-        <v>0.841122238842382</v>
+        <v>0.1539817822833703</v>
       </c>
       <c r="D12">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E12">
-        <v>103.4770342678379</v>
+        <v>17.79460367658578</v>
       </c>
       <c r="F12">
-        <v>106.7765670948963</v>
+        <v>18.39863921494288</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>GoSub_C</t>
+          <t>ProS_L</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B13">
-        <v>116.8008708819342</v>
+        <v>19.2625144185298</v>
       </c>
       <c r="C13">
-        <v>9.076883534023912</v>
+        <v>0.1549964421666558</v>
       </c>
       <c r="D13">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E13">
-        <v>98.99758747979925</v>
+        <v>18.95850650928481</v>
       </c>
       <c r="F13">
-        <v>134.6041542840692</v>
+        <v>19.56652232777479</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>GoSub_C</t>
+          <t>ProS_L</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female/Other</t>
         </is>
       </c>
       <c r="B14">
-        <v>18.21241731297346</v>
+        <v>42.78868585215599</v>
       </c>
       <c r="C14">
-        <v>0.2991629036946293</v>
+        <v>0.2489154492543804</v>
       </c>
       <c r="D14">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E14">
-        <v>17.62564301561504</v>
+        <v>42.30046648241563</v>
       </c>
       <c r="F14">
-        <v>18.79919161033188</v>
+        <v>43.27690522189636</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>NRB_L</t>
+          <t>SelP_L</t>
         </is>
       </c>
     </row>
@@ -752,158 +752,158 @@
         </is>
       </c>
       <c r="B15">
-        <v>17.49554440262891</v>
+        <v>46.47098018278521</v>
       </c>
       <c r="C15">
-        <v>0.3006057760041343</v>
+        <v>0.2505556726427785</v>
       </c>
       <c r="D15">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E15">
-        <v>16.90594007395601</v>
+        <v>45.97954370124518</v>
       </c>
       <c r="F15">
-        <v>18.08514873130182</v>
+        <v>46.96241666432525</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>NRB_L</t>
+          <t>SelP_L</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female/Other</t>
         </is>
       </c>
       <c r="B16">
-        <v>17.76856347576038</v>
+        <v>111.5085485037237</v>
       </c>
       <c r="C16">
-        <v>3.243956101077139</v>
+        <v>0.5420984864659972</v>
       </c>
       <c r="D16">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E16">
-        <v>11.40590942218806</v>
+        <v>110.4452839205393</v>
       </c>
       <c r="F16">
-        <v>24.13121752933269</v>
+        <v>112.5718130869082</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>NRB_L</t>
+          <t>SelM_L</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B17">
-        <v>18.09922887167609</v>
+        <v>119.3974681935738</v>
       </c>
       <c r="C17">
-        <v>0.1546772476905844</v>
+        <v>0.5456706336307483</v>
       </c>
       <c r="D17">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E17">
-        <v>17.7958468941311</v>
+        <v>118.3271972496246</v>
       </c>
       <c r="F17">
-        <v>18.40261084922108</v>
+        <v>120.467739137523</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ProS_L</t>
+          <t>SelM_L</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female/Other</t>
         </is>
       </c>
       <c r="B18">
-        <v>19.26451747569408</v>
+        <v>71.46598575354369</v>
       </c>
       <c r="C18">
-        <v>0.1554232610326363</v>
+        <v>0.6185034843659719</v>
       </c>
       <c r="D18">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E18">
-        <v>18.95967227711067</v>
+        <v>70.2528614487892</v>
       </c>
       <c r="F18">
-        <v>19.56936267427749</v>
+        <v>72.67911005829818</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ProS_L</t>
+          <t>SnasM_C</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B19">
-        <v>17.78940371623946</v>
+        <v>76.59000432429221</v>
       </c>
       <c r="C19">
-        <v>1.677234025833193</v>
+        <v>0.6225791007405347</v>
       </c>
       <c r="D19">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E19">
-        <v>14.49969832543176</v>
+        <v>75.36888616112654</v>
       </c>
       <c r="F19">
-        <v>21.07910910704716</v>
+        <v>77.81112248745788</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ProS_L</t>
+          <t>SnasM_C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female/Other</t>
         </is>
       </c>
       <c r="B20">
-        <v>42.82943935660893</v>
+        <v>146.8215556603901</v>
       </c>
       <c r="C20">
-        <v>0.2498050259815667</v>
+        <v>0.7212552650387453</v>
       </c>
       <c r="D20">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E20">
-        <v>42.33947497002657</v>
+        <v>145.4068954134109</v>
       </c>
       <c r="F20">
-        <v>43.31940374319129</v>
+        <v>148.2362159073692</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SelP_L</t>
+          <t>TrSman_C</t>
         </is>
       </c>
     </row>
@@ -914,453 +914,129 @@
         </is>
       </c>
       <c r="B21">
-        <v>46.50228753410664</v>
+        <v>160.7779720525301</v>
       </c>
       <c r="C21">
-        <v>0.2510098436588677</v>
+        <v>0.726007962222731</v>
       </c>
       <c r="D21">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E21">
-        <v>46.00996003352414</v>
+        <v>159.353989930068</v>
       </c>
       <c r="F21">
-        <v>46.99461503468913</v>
+        <v>162.2019541749922</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SelP_L</t>
+          <t>TrSman_C</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female/Other</t>
         </is>
       </c>
       <c r="B22">
-        <v>37.98693902138608</v>
+        <v>276.0778136223163</v>
       </c>
       <c r="C22">
-        <v>2.708746733317605</v>
+        <v>0.7649957812457149</v>
       </c>
       <c r="D22">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E22">
-        <v>32.67403778418336</v>
+        <v>274.5773613229809</v>
       </c>
       <c r="F22">
-        <v>43.29984025858879</v>
+        <v>277.5782659216516</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SelP_L</t>
+          <t>TrTr_C</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B23">
-        <v>111.4601229895256</v>
+        <v>289.822537186828</v>
       </c>
       <c r="C23">
-        <v>0.5443986918415149</v>
+        <v>0.7700367056888693</v>
       </c>
       <c r="D23">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E23">
-        <v>110.3923463502996</v>
+        <v>288.3121976869917</v>
       </c>
       <c r="F23">
-        <v>112.5278996287517</v>
+        <v>291.3328766866642</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SelM_L</t>
+          <t>TrTr_C</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female/Other</t>
         </is>
       </c>
       <c r="B24">
-        <v>119.3602671085071</v>
+        <v>142.4409553280549</v>
       </c>
       <c r="C24">
-        <v>0.5470243442472379</v>
+        <v>0.3790117714118788</v>
       </c>
       <c r="D24">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E24">
-        <v>118.2873405481964</v>
+        <v>141.6975668050959</v>
       </c>
       <c r="F24">
-        <v>120.4331936688177</v>
+        <v>143.1843438510139</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SelM_L</t>
+          <t>TrTr_L</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B25">
-        <v>117.2142433255654</v>
+        <v>152.0575865443993</v>
       </c>
       <c r="C25">
-        <v>5.903156561217052</v>
+        <v>0.3815092619204437</v>
       </c>
       <c r="D25">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E25">
-        <v>105.6358674620239</v>
+        <v>151.3092994775947</v>
       </c>
       <c r="F25">
-        <v>128.7926191891069</v>
+        <v>152.8058736112039</v>
       </c>
       <c r="G25" t="inlineStr">
-        <is>
-          <t>SelM_L</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>71.37827677876741</v>
-      </c>
-      <c r="C26">
-        <v>0.6208611791239389</v>
-      </c>
-      <c r="D26">
-        <v>1668</v>
-      </c>
-      <c r="E26">
-        <v>70.16052759383025</v>
-      </c>
-      <c r="F26">
-        <v>72.59602596370458</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>SnasM_C</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>76.52262519397634</v>
-      </c>
-      <c r="C27">
-        <v>0.6238556125658571</v>
-      </c>
-      <c r="D27">
-        <v>1668</v>
-      </c>
-      <c r="E27">
-        <v>75.2990027655415</v>
-      </c>
-      <c r="F27">
-        <v>77.74624762241118</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>SnasM_C</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>81.80022074303278</v>
-      </c>
-      <c r="C28">
-        <v>6.732273236647305</v>
-      </c>
-      <c r="D28">
-        <v>1668</v>
-      </c>
-      <c r="E28">
-        <v>68.59562602466184</v>
-      </c>
-      <c r="F28">
-        <v>95.00481546140372</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>SnasM_C</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>146.6986849811876</v>
-      </c>
-      <c r="C29">
-        <v>0.7237760531671829</v>
-      </c>
-      <c r="D29">
-        <v>1668</v>
-      </c>
-      <c r="E29">
-        <v>145.2790798770884</v>
-      </c>
-      <c r="F29">
-        <v>148.1182900852867</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>TrSman_C</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>160.6835812615409</v>
-      </c>
-      <c r="C30">
-        <v>0.7272668483576979</v>
-      </c>
-      <c r="D30">
-        <v>1668</v>
-      </c>
-      <c r="E30">
-        <v>159.2571293563516</v>
-      </c>
-      <c r="F30">
-        <v>162.1100331667302</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>TrSman_C</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B31">
-        <v>161.298688421725</v>
-      </c>
-      <c r="C31">
-        <v>7.848224878448944</v>
-      </c>
-      <c r="D31">
-        <v>1668</v>
-      </c>
-      <c r="E31">
-        <v>145.9052804099367</v>
-      </c>
-      <c r="F31">
-        <v>176.6920964335132</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>TrSman_C</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>276.0018009579895</v>
-      </c>
-      <c r="C32">
-        <v>0.7681902929978643</v>
-      </c>
-      <c r="D32">
-        <v>1668</v>
-      </c>
-      <c r="E32">
-        <v>274.4950823312994</v>
-      </c>
-      <c r="F32">
-        <v>277.5085195846795</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>TrTr_C</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>289.7641433083406</v>
-      </c>
-      <c r="C33">
-        <v>0.7718952994960246</v>
-      </c>
-      <c r="D33">
-        <v>1668</v>
-      </c>
-      <c r="E33">
-        <v>288.2501577292383</v>
-      </c>
-      <c r="F33">
-        <v>291.278128887443</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>TrTr_C</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>285.0339408297609</v>
-      </c>
-      <c r="C34">
-        <v>8.329828187195099</v>
-      </c>
-      <c r="D34">
-        <v>1668</v>
-      </c>
-      <c r="E34">
-        <v>268.695922240909</v>
-      </c>
-      <c r="F34">
-        <v>301.3719594186128</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>TrTr_C</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>142.405916335768</v>
-      </c>
-      <c r="C35">
-        <v>0.3806123387390005</v>
-      </c>
-      <c r="D35">
-        <v>1668</v>
-      </c>
-      <c r="E35">
-        <v>141.6593881570688</v>
-      </c>
-      <c r="F35">
-        <v>143.1524445144672</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>TrTr_L</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>152.0306691527247</v>
-      </c>
-      <c r="C36">
-        <v>0.382448044294202</v>
-      </c>
-      <c r="D36">
-        <v>1668</v>
-      </c>
-      <c r="E36">
-        <v>151.2805404446015</v>
-      </c>
-      <c r="F36">
-        <v>152.7807978608479</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>TrTr_L</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>146.5693946469611</v>
-      </c>
-      <c r="C37">
-        <v>4.127148463761168</v>
-      </c>
-      <c r="D37">
-        <v>1668</v>
-      </c>
-      <c r="E37">
-        <v>138.4744583764224</v>
-      </c>
-      <c r="F37">
-        <v>154.6643309174999</v>
-      </c>
-      <c r="G37" t="inlineStr">
         <is>
           <t>TrTr_L</t>
         </is>

--- a/gender_means_data.xlsx
+++ b/gender_means_data.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>58.46168411738483</v>
+        <v>58.462</v>
       </c>
       <c r="C2">
-        <v>0.3414083824633194</v>
+        <v>0.341</v>
       </c>
       <c r="D2">
         <v>1669</v>
       </c>
       <c r="E2">
-        <v>57.79205036901923</v>
+        <v>57.792</v>
       </c>
       <c r="F2">
-        <v>59.13131786575043</v>
+        <v>59.131</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -428,19 +428,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>64.90194800623853</v>
+        <v>64.902</v>
       </c>
       <c r="C3">
-        <v>0.3436580861903839</v>
+        <v>0.344</v>
       </c>
       <c r="D3">
         <v>1669</v>
       </c>
       <c r="E3">
-        <v>64.2279017196435</v>
+        <v>64.22799999999999</v>
       </c>
       <c r="F3">
-        <v>65.57599429283356</v>
+        <v>65.57599999999999</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>108.5288738897135</v>
+        <v>108.529</v>
       </c>
       <c r="C4">
-        <v>0.6016357024765655</v>
+        <v>0.602</v>
       </c>
       <c r="D4">
         <v>1669</v>
       </c>
       <c r="E4">
-        <v>107.3488338224687</v>
+        <v>107.349</v>
       </c>
       <c r="F4">
-        <v>109.7089139569583</v>
+        <v>109.709</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>112.1495515030993</v>
+        <v>112.15</v>
       </c>
       <c r="C5">
-        <v>0.6056001689387854</v>
+        <v>0.606</v>
       </c>
       <c r="D5">
         <v>1669</v>
       </c>
       <c r="E5">
-        <v>110.9617355853666</v>
+        <v>110.962</v>
       </c>
       <c r="F5">
-        <v>113.3373674208321</v>
+        <v>113.337</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>127.1678053282074</v>
+        <v>127.168</v>
       </c>
       <c r="C6">
-        <v>0.7778707874772726</v>
+        <v>0.778</v>
       </c>
       <c r="D6">
         <v>1669</v>
       </c>
       <c r="E6">
-        <v>125.6421001671208</v>
+        <v>125.642</v>
       </c>
       <c r="F6">
-        <v>128.693510489294</v>
+        <v>128.694</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>135.9331619477212</v>
+        <v>135.933</v>
       </c>
       <c r="C7">
-        <v>0.7829965515172058</v>
+        <v>0.783</v>
       </c>
       <c r="D7">
         <v>1669</v>
       </c>
       <c r="E7">
-        <v>134.3974031829049</v>
+        <v>134.397</v>
       </c>
       <c r="F7">
-        <v>137.4689207125375</v>
+        <v>137.469</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>93.93357111473098</v>
+        <v>93.934</v>
       </c>
       <c r="C8">
-        <v>0.834910118449337</v>
+        <v>0.835</v>
       </c>
       <c r="D8">
         <v>1669</v>
       </c>
       <c r="E8">
-        <v>92.29598978725534</v>
+        <v>92.29600000000001</v>
       </c>
       <c r="F8">
-        <v>95.57115244220662</v>
+        <v>95.571</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>105.27589529481</v>
+        <v>105.276</v>
       </c>
       <c r="C9">
-        <v>0.8404117420230965</v>
+        <v>0.84</v>
       </c>
       <c r="D9">
         <v>1669</v>
       </c>
       <c r="E9">
-        <v>103.6275231578375</v>
+        <v>103.628</v>
       </c>
       <c r="F9">
-        <v>106.9242674317826</v>
+        <v>106.924</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>18.20868192875474</v>
+        <v>18.209</v>
       </c>
       <c r="C10">
-        <v>0.2978164332685571</v>
+        <v>0.298</v>
       </c>
       <c r="D10">
         <v>1669</v>
       </c>
       <c r="E10">
-        <v>17.62454883543234</v>
+        <v>17.625</v>
       </c>
       <c r="F10">
-        <v>18.79281502207714</v>
+        <v>18.793</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>17.49267483379978</v>
+        <v>17.493</v>
       </c>
       <c r="C11">
-        <v>0.2997788887158169</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
         <v>1669</v>
       </c>
       <c r="E11">
-        <v>16.9046926071091</v>
+        <v>16.905</v>
       </c>
       <c r="F11">
-        <v>18.08065706049046</v>
+        <v>18.081</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -671,19 +671,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>18.09662144576433</v>
+        <v>18.097</v>
       </c>
       <c r="C12">
-        <v>0.1539817822833703</v>
+        <v>0.154</v>
       </c>
       <c r="D12">
         <v>1669</v>
       </c>
       <c r="E12">
-        <v>17.79460367658578</v>
+        <v>17.795</v>
       </c>
       <c r="F12">
-        <v>18.39863921494288</v>
+        <v>18.399</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>19.2625144185298</v>
+        <v>19.263</v>
       </c>
       <c r="C13">
-        <v>0.1549964421666558</v>
+        <v>0.155</v>
       </c>
       <c r="D13">
         <v>1669</v>
       </c>
       <c r="E13">
-        <v>18.95850650928481</v>
+        <v>18.959</v>
       </c>
       <c r="F13">
-        <v>19.56652232777479</v>
+        <v>19.567</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>42.78868585215599</v>
+        <v>42.789</v>
       </c>
       <c r="C14">
-        <v>0.2489154492543804</v>
+        <v>0.249</v>
       </c>
       <c r="D14">
         <v>1669</v>
       </c>
       <c r="E14">
-        <v>42.30046648241563</v>
+        <v>42.3</v>
       </c>
       <c r="F14">
-        <v>43.27690522189636</v>
+        <v>43.277</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -752,19 +752,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>46.47098018278521</v>
+        <v>46.471</v>
       </c>
       <c r="C15">
-        <v>0.2505556726427785</v>
+        <v>0.251</v>
       </c>
       <c r="D15">
         <v>1669</v>
       </c>
       <c r="E15">
-        <v>45.97954370124518</v>
+        <v>45.98</v>
       </c>
       <c r="F15">
-        <v>46.96241666432525</v>
+        <v>46.962</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="B16">
-        <v>111.5085485037237</v>
+        <v>111.509</v>
       </c>
       <c r="C16">
-        <v>0.5420984864659972</v>
+        <v>0.542</v>
       </c>
       <c r="D16">
         <v>1669</v>
       </c>
       <c r="E16">
-        <v>110.4452839205393</v>
+        <v>110.445</v>
       </c>
       <c r="F16">
-        <v>112.5718130869082</v>
+        <v>112.572</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>119.3974681935738</v>
+        <v>119.397</v>
       </c>
       <c r="C17">
-        <v>0.5456706336307483</v>
+        <v>0.546</v>
       </c>
       <c r="D17">
         <v>1669</v>
       </c>
       <c r="E17">
-        <v>118.3271972496246</v>
+        <v>118.327</v>
       </c>
       <c r="F17">
-        <v>120.467739137523</v>
+        <v>120.468</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="B18">
-        <v>71.46598575354369</v>
+        <v>71.46599999999999</v>
       </c>
       <c r="C18">
-        <v>0.6185034843659719</v>
+        <v>0.619</v>
       </c>
       <c r="D18">
         <v>1669</v>
       </c>
       <c r="E18">
-        <v>70.2528614487892</v>
+        <v>70.253</v>
       </c>
       <c r="F18">
-        <v>72.67911005829818</v>
+        <v>72.679</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -860,19 +860,19 @@
         </is>
       </c>
       <c r="B19">
-        <v>76.59000432429221</v>
+        <v>76.59</v>
       </c>
       <c r="C19">
-        <v>0.6225791007405347</v>
+        <v>0.623</v>
       </c>
       <c r="D19">
         <v>1669</v>
       </c>
       <c r="E19">
-        <v>75.36888616112654</v>
+        <v>75.369</v>
       </c>
       <c r="F19">
-        <v>77.81112248745788</v>
+        <v>77.81100000000001</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>146.8215556603901</v>
+        <v>146.822</v>
       </c>
       <c r="C20">
-        <v>0.7212552650387453</v>
+        <v>0.721</v>
       </c>
       <c r="D20">
         <v>1669</v>
       </c>
       <c r="E20">
-        <v>145.4068954134109</v>
+        <v>145.407</v>
       </c>
       <c r="F20">
-        <v>148.2362159073692</v>
+        <v>148.236</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -914,19 +914,19 @@
         </is>
       </c>
       <c r="B21">
-        <v>160.7779720525301</v>
+        <v>160.778</v>
       </c>
       <c r="C21">
-        <v>0.726007962222731</v>
+        <v>0.726</v>
       </c>
       <c r="D21">
         <v>1669</v>
       </c>
       <c r="E21">
-        <v>159.353989930068</v>
+        <v>159.354</v>
       </c>
       <c r="F21">
-        <v>162.2019541749922</v>
+        <v>162.202</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
         </is>
       </c>
       <c r="B22">
-        <v>276.0778136223163</v>
+        <v>276.078</v>
       </c>
       <c r="C22">
-        <v>0.7649957812457149</v>
+        <v>0.765</v>
       </c>
       <c r="D22">
         <v>1669</v>
       </c>
       <c r="E22">
-        <v>274.5773613229809</v>
+        <v>274.577</v>
       </c>
       <c r="F22">
-        <v>277.5782659216516</v>
+        <v>277.578</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B23">
-        <v>289.822537186828</v>
+        <v>289.823</v>
       </c>
       <c r="C23">
-        <v>0.7700367056888693</v>
+        <v>0.77</v>
       </c>
       <c r="D23">
         <v>1669</v>
       </c>
       <c r="E23">
-        <v>288.3121976869917</v>
+        <v>288.312</v>
       </c>
       <c r="F23">
-        <v>291.3328766866642</v>
+        <v>291.333</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
         </is>
       </c>
       <c r="B24">
-        <v>142.4409553280549</v>
+        <v>142.441</v>
       </c>
       <c r="C24">
-        <v>0.3790117714118788</v>
+        <v>0.379</v>
       </c>
       <c r="D24">
         <v>1669</v>
       </c>
       <c r="E24">
-        <v>141.6975668050959</v>
+        <v>141.698</v>
       </c>
       <c r="F24">
-        <v>143.1843438510139</v>
+        <v>143.184</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>152.0575865443993</v>
+        <v>152.058</v>
       </c>
       <c r="C25">
-        <v>0.3815092619204437</v>
+        <v>0.382</v>
       </c>
       <c r="D25">
         <v>1669</v>
       </c>
       <c r="E25">
-        <v>151.3092994775947</v>
+        <v>151.309</v>
       </c>
       <c r="F25">
-        <v>152.8058736112039</v>
+        <v>152.806</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
